--- a/Nut_Freight_Costs_copy.xlsx
+++ b/Nut_Freight_Costs_copy.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2026-NUT-001</t>
+          <t>AVZ-0154383-3</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MV ASIA EXPRESS</t>
+          <t>EVER EAGLE 192E</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>46028</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>3500</v>
+        <v>10991.5</v>
       </c>
     </row>
     <row r="9">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>9750</v>
+        <v>15382.36</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
-        <v>12500.5</v>
+        <v>7821</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -684,17 +684,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>NUT-3/8-16</t>
+          <t>DCS-621</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0.45</v>
+        <v>7.25</v>
       </c>
       <c r="C17" s="10" t="n">
-        <v>25.5</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f>IF(AND(A17&lt;&gt;"",B17&lt;&gt;"",C17&lt;&gt;"",D17&lt;&gt;""),"✓","")</f>
@@ -704,17 +704,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>NUT-1/2-13</t>
+          <t>DCS-623</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>0.62</v>
+        <v>6.9</v>
       </c>
       <c r="C18" s="10" t="n">
-        <v>18.2</v>
+        <v>252</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <f>IF(AND(A18&lt;&gt;"",B18&lt;&gt;"",C18&lt;&gt;"",D18&lt;&gt;""),"✓","")</f>
@@ -724,14 +724,14 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>NUT-5/8-11</t>
+          <t>DCS-672</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0.85</v>
+        <v>15.4</v>
       </c>
       <c r="C19" s="10" t="n">
-        <v>12.8</v>
+        <v>264.6</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>3</v>
@@ -744,17 +744,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>NUT-3/4-10</t>
+          <t>DCS-929</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>1.2</v>
+        <v>7.94</v>
       </c>
       <c r="C20" s="10" t="n">
-        <v>8.5</v>
+        <v>1020.6</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <f>IF(AND(A20&lt;&gt;"",B20&lt;&gt;"",C20&lt;&gt;"",D20&lt;&gt;""),"✓","")</f>
@@ -1214,7 +1214,7 @@
         <v/>
       </c>
       <c r="D5" s="13">
-        <f>IF(B5="","",B5*C5*1000)</f>
+        <f>IF(B5="","",B5*C5)</f>
         <v/>
       </c>
       <c r="E5" s="15">
@@ -1222,7 +1222,7 @@
         <v/>
       </c>
       <c r="F5" s="16">
-        <f>IF(D5="","",D5/$D$46)</f>
+        <f>IF(D5="","",D5/$D$41)</f>
         <v/>
       </c>
       <c r="G5" s="17">
@@ -1252,7 +1252,7 @@
         <v/>
       </c>
       <c r="D6" s="13">
-        <f>IF(B6="","",B6*C6*1000)</f>
+        <f>IF(B6="","",B6*C6)</f>
         <v/>
       </c>
       <c r="E6" s="15">
@@ -1260,7 +1260,7 @@
         <v/>
       </c>
       <c r="F6" s="16">
-        <f>IF(D6="","",D6/$D$46)</f>
+        <f>IF(D6="","",D6/$D$41)</f>
         <v/>
       </c>
       <c r="G6" s="17">
@@ -1290,7 +1290,7 @@
         <v/>
       </c>
       <c r="D7" s="13">
-        <f>IF(B7="","",B7*C7*1000)</f>
+        <f>IF(B7="","",B7*C7)</f>
         <v/>
       </c>
       <c r="E7" s="15">
@@ -1298,7 +1298,7 @@
         <v/>
       </c>
       <c r="F7" s="16">
-        <f>IF(D7="","",D7/$D$46)</f>
+        <f>IF(D7="","",D7/$D$41)</f>
         <v/>
       </c>
       <c r="G7" s="17">
@@ -1328,7 +1328,7 @@
         <v/>
       </c>
       <c r="D8" s="13">
-        <f>IF(B8="","",B8*C8*1000)</f>
+        <f>IF(B8="","",B8*C8)</f>
         <v/>
       </c>
       <c r="E8" s="15">
@@ -1336,7 +1336,7 @@
         <v/>
       </c>
       <c r="F8" s="16">
-        <f>IF(D8="","",D8/$D$46)</f>
+        <f>IF(D8="","",D8/$D$41)</f>
         <v/>
       </c>
       <c r="G8" s="17">
@@ -1366,7 +1366,7 @@
         <v/>
       </c>
       <c r="D9" s="13">
-        <f>IF(B9="","",B9*C9*1000)</f>
+        <f>IF(B9="","",B9*C9)</f>
         <v/>
       </c>
       <c r="E9" s="15">
@@ -1374,7 +1374,7 @@
         <v/>
       </c>
       <c r="F9" s="16">
-        <f>IF(D9="","",D9/$D$46)</f>
+        <f>IF(D9="","",D9/$D$41)</f>
         <v/>
       </c>
       <c r="G9" s="17">
@@ -1404,7 +1404,7 @@
         <v/>
       </c>
       <c r="D10" s="13">
-        <f>IF(B10="","",B10*C10*1000)</f>
+        <f>IF(B10="","",B10*C10)</f>
         <v/>
       </c>
       <c r="E10" s="15">
@@ -1412,7 +1412,7 @@
         <v/>
       </c>
       <c r="F10" s="16">
-        <f>IF(D10="","",D10/$D$46)</f>
+        <f>IF(D10="","",D10/$D$41)</f>
         <v/>
       </c>
       <c r="G10" s="17">
@@ -1442,7 +1442,7 @@
         <v/>
       </c>
       <c r="D11" s="13">
-        <f>IF(B11="","",B11*C11*1000)</f>
+        <f>IF(B11="","",B11*C11)</f>
         <v/>
       </c>
       <c r="E11" s="15">
@@ -1450,7 +1450,7 @@
         <v/>
       </c>
       <c r="F11" s="16">
-        <f>IF(D11="","",D11/$D$46)</f>
+        <f>IF(D11="","",D11/$D$41)</f>
         <v/>
       </c>
       <c r="G11" s="17">
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
       <c r="D12" s="13">
-        <f>IF(B12="","",B12*C12*1000)</f>
+        <f>IF(B12="","",B12*C12)</f>
         <v/>
       </c>
       <c r="E12" s="15">
@@ -1488,7 +1488,7 @@
         <v/>
       </c>
       <c r="F12" s="16">
-        <f>IF(D12="","",D12/$D$46)</f>
+        <f>IF(D12="","",D12/$D$41)</f>
         <v/>
       </c>
       <c r="G12" s="17">
@@ -1518,7 +1518,7 @@
         <v/>
       </c>
       <c r="D13" s="13">
-        <f>IF(B13="","",B13*C13*1000)</f>
+        <f>IF(B13="","",B13*C13)</f>
         <v/>
       </c>
       <c r="E13" s="15">
@@ -1526,7 +1526,7 @@
         <v/>
       </c>
       <c r="F13" s="16">
-        <f>IF(D13="","",D13/$D$46)</f>
+        <f>IF(D13="","",D13/$D$41)</f>
         <v/>
       </c>
       <c r="G13" s="17">
@@ -1556,7 +1556,7 @@
         <v/>
       </c>
       <c r="D14" s="13">
-        <f>IF(B14="","",B14*C14*1000)</f>
+        <f>IF(B14="","",B14*C14)</f>
         <v/>
       </c>
       <c r="E14" s="15">
@@ -1564,7 +1564,7 @@
         <v/>
       </c>
       <c r="F14" s="16">
-        <f>IF(D14="","",D14/$D$46)</f>
+        <f>IF(D14="","",D14/$D$41)</f>
         <v/>
       </c>
       <c r="G14" s="17">
@@ -1594,7 +1594,7 @@
         <v/>
       </c>
       <c r="D15" s="13">
-        <f>IF(B15="","",B15*C15*1000)</f>
+        <f>IF(B15="","",B15*C15)</f>
         <v/>
       </c>
       <c r="E15" s="15">
@@ -1602,7 +1602,7 @@
         <v/>
       </c>
       <c r="F15" s="16">
-        <f>IF(D15="","",D15/$D$46)</f>
+        <f>IF(D15="","",D15/$D$41)</f>
         <v/>
       </c>
       <c r="G15" s="17">
@@ -1632,7 +1632,7 @@
         <v/>
       </c>
       <c r="D16" s="13">
-        <f>IF(B16="","",B16*C16*1000)</f>
+        <f>IF(B16="","",B16*C16)</f>
         <v/>
       </c>
       <c r="E16" s="15">
@@ -1640,7 +1640,7 @@
         <v/>
       </c>
       <c r="F16" s="16">
-        <f>IF(D16="","",D16/$D$46)</f>
+        <f>IF(D16="","",D16/$D$41)</f>
         <v/>
       </c>
       <c r="G16" s="17">
@@ -1670,7 +1670,7 @@
         <v/>
       </c>
       <c r="D17" s="13">
-        <f>IF(B17="","",B17*C17*1000)</f>
+        <f>IF(B17="","",B17*C17)</f>
         <v/>
       </c>
       <c r="E17" s="15">
@@ -1678,7 +1678,7 @@
         <v/>
       </c>
       <c r="F17" s="16">
-        <f>IF(D17="","",D17/$D$46)</f>
+        <f>IF(D17="","",D17/$D$41)</f>
         <v/>
       </c>
       <c r="G17" s="17">
@@ -1708,7 +1708,7 @@
         <v/>
       </c>
       <c r="D18" s="13">
-        <f>IF(B18="","",B18*C18*1000)</f>
+        <f>IF(B18="","",B18*C18)</f>
         <v/>
       </c>
       <c r="E18" s="15">
@@ -1716,7 +1716,7 @@
         <v/>
       </c>
       <c r="F18" s="16">
-        <f>IF(D18="","",D18/$D$46)</f>
+        <f>IF(D18="","",D18/$D$41)</f>
         <v/>
       </c>
       <c r="G18" s="17">
@@ -1746,7 +1746,7 @@
         <v/>
       </c>
       <c r="D19" s="13">
-        <f>IF(B19="","",B19*C19*1000)</f>
+        <f>IF(B19="","",B19*C19)</f>
         <v/>
       </c>
       <c r="E19" s="15">
@@ -1754,7 +1754,7 @@
         <v/>
       </c>
       <c r="F19" s="16">
-        <f>IF(D19="","",D19/$D$46)</f>
+        <f>IF(D19="","",D19/$D$41)</f>
         <v/>
       </c>
       <c r="G19" s="17">
@@ -1784,7 +1784,7 @@
         <v/>
       </c>
       <c r="D20" s="13">
-        <f>IF(B20="","",B20*C20*1000)</f>
+        <f>IF(B20="","",B20*C20)</f>
         <v/>
       </c>
       <c r="E20" s="15">
@@ -1792,7 +1792,7 @@
         <v/>
       </c>
       <c r="F20" s="16">
-        <f>IF(D20="","",D20/$D$46)</f>
+        <f>IF(D20="","",D20/$D$41)</f>
         <v/>
       </c>
       <c r="G20" s="17">
@@ -1822,7 +1822,7 @@
         <v/>
       </c>
       <c r="D21" s="13">
-        <f>IF(B21="","",B21*C21*1000)</f>
+        <f>IF(B21="","",B21*C21)</f>
         <v/>
       </c>
       <c r="E21" s="15">
@@ -1830,7 +1830,7 @@
         <v/>
       </c>
       <c r="F21" s="16">
-        <f>IF(D21="","",D21/$D$46)</f>
+        <f>IF(D21="","",D21/$D$41)</f>
         <v/>
       </c>
       <c r="G21" s="17">
@@ -1860,7 +1860,7 @@
         <v/>
       </c>
       <c r="D22" s="13">
-        <f>IF(B22="","",B22*C22*1000)</f>
+        <f>IF(B22="","",B22*C22)</f>
         <v/>
       </c>
       <c r="E22" s="15">
@@ -1868,7 +1868,7 @@
         <v/>
       </c>
       <c r="F22" s="16">
-        <f>IF(D22="","",D22/$D$46)</f>
+        <f>IF(D22="","",D22/$D$41)</f>
         <v/>
       </c>
       <c r="G22" s="17">
@@ -1898,7 +1898,7 @@
         <v/>
       </c>
       <c r="D23" s="13">
-        <f>IF(B23="","",B23*C23*1000)</f>
+        <f>IF(B23="","",B23*C23)</f>
         <v/>
       </c>
       <c r="E23" s="15">
@@ -1906,7 +1906,7 @@
         <v/>
       </c>
       <c r="F23" s="16">
-        <f>IF(D23="","",D23/$D$46)</f>
+        <f>IF(D23="","",D23/$D$41)</f>
         <v/>
       </c>
       <c r="G23" s="17">
@@ -1936,7 +1936,7 @@
         <v/>
       </c>
       <c r="D24" s="13">
-        <f>IF(B24="","",B24*C24*1000)</f>
+        <f>IF(B24="","",B24*C24)</f>
         <v/>
       </c>
       <c r="E24" s="15">
@@ -1944,7 +1944,7 @@
         <v/>
       </c>
       <c r="F24" s="16">
-        <f>IF(D24="","",D24/$D$46)</f>
+        <f>IF(D24="","",D24/$D$41)</f>
         <v/>
       </c>
       <c r="G24" s="17">
@@ -1974,7 +1974,7 @@
         <v/>
       </c>
       <c r="D25" s="13">
-        <f>IF(B25="","",B25*C25*1000)</f>
+        <f>IF(B25="","",B25*C25)</f>
         <v/>
       </c>
       <c r="E25" s="15">
@@ -1982,7 +1982,7 @@
         <v/>
       </c>
       <c r="F25" s="16">
-        <f>IF(D25="","",D25/$D$46)</f>
+        <f>IF(D25="","",D25/$D$41)</f>
         <v/>
       </c>
       <c r="G25" s="17">
@@ -2012,7 +2012,7 @@
         <v/>
       </c>
       <c r="D26" s="13">
-        <f>IF(B26="","",B26*C26*1000)</f>
+        <f>IF(B26="","",B26*C26)</f>
         <v/>
       </c>
       <c r="E26" s="15">
@@ -2020,7 +2020,7 @@
         <v/>
       </c>
       <c r="F26" s="16">
-        <f>IF(D26="","",D26/$D$46)</f>
+        <f>IF(D26="","",D26/$D$41)</f>
         <v/>
       </c>
       <c r="G26" s="17">
@@ -2050,7 +2050,7 @@
         <v/>
       </c>
       <c r="D27" s="13">
-        <f>IF(B27="","",B27*C27*1000)</f>
+        <f>IF(B27="","",B27*C27)</f>
         <v/>
       </c>
       <c r="E27" s="15">
@@ -2058,7 +2058,7 @@
         <v/>
       </c>
       <c r="F27" s="16">
-        <f>IF(D27="","",D27/$D$46)</f>
+        <f>IF(D27="","",D27/$D$41)</f>
         <v/>
       </c>
       <c r="G27" s="17">
@@ -2088,7 +2088,7 @@
         <v/>
       </c>
       <c r="D28" s="13">
-        <f>IF(B28="","",B28*C28*1000)</f>
+        <f>IF(B28="","",B28*C28)</f>
         <v/>
       </c>
       <c r="E28" s="15">
@@ -2096,7 +2096,7 @@
         <v/>
       </c>
       <c r="F28" s="16">
-        <f>IF(D28="","",D28/$D$46)</f>
+        <f>IF(D28="","",D28/$D$41)</f>
         <v/>
       </c>
       <c r="G28" s="17">
@@ -2126,7 +2126,7 @@
         <v/>
       </c>
       <c r="D29" s="13">
-        <f>IF(B29="","",B29*C29*1000)</f>
+        <f>IF(B29="","",B29*C29)</f>
         <v/>
       </c>
       <c r="E29" s="15">
@@ -2134,7 +2134,7 @@
         <v/>
       </c>
       <c r="F29" s="16">
-        <f>IF(D29="","",D29/$D$46)</f>
+        <f>IF(D29="","",D29/$D$41)</f>
         <v/>
       </c>
       <c r="G29" s="17">
@@ -2164,7 +2164,7 @@
         <v/>
       </c>
       <c r="D30" s="13">
-        <f>IF(B30="","",B30*C30*1000)</f>
+        <f>IF(B30="","",B30*C30)</f>
         <v/>
       </c>
       <c r="E30" s="15">
@@ -2172,7 +2172,7 @@
         <v/>
       </c>
       <c r="F30" s="16">
-        <f>IF(D30="","",D30/$D$46)</f>
+        <f>IF(D30="","",D30/$D$41)</f>
         <v/>
       </c>
       <c r="G30" s="17">
@@ -2202,7 +2202,7 @@
         <v/>
       </c>
       <c r="D31" s="13">
-        <f>IF(B31="","",B31*C31*1000)</f>
+        <f>IF(B31="","",B31*C31)</f>
         <v/>
       </c>
       <c r="E31" s="15">
@@ -2210,7 +2210,7 @@
         <v/>
       </c>
       <c r="F31" s="16">
-        <f>IF(D31="","",D31/$D$46)</f>
+        <f>IF(D31="","",D31/$D$41)</f>
         <v/>
       </c>
       <c r="G31" s="17">
@@ -2240,7 +2240,7 @@
         <v/>
       </c>
       <c r="D32" s="13">
-        <f>IF(B32="","",B32*C32*1000)</f>
+        <f>IF(B32="","",B32*C32)</f>
         <v/>
       </c>
       <c r="E32" s="15">
@@ -2248,7 +2248,7 @@
         <v/>
       </c>
       <c r="F32" s="16">
-        <f>IF(D32="","",D32/$D$46)</f>
+        <f>IF(D32="","",D32/$D$41)</f>
         <v/>
       </c>
       <c r="G32" s="17">
@@ -2278,7 +2278,7 @@
         <v/>
       </c>
       <c r="D33" s="13">
-        <f>IF(B33="","",B33*C33*1000)</f>
+        <f>IF(B33="","",B33*C33)</f>
         <v/>
       </c>
       <c r="E33" s="15">
@@ -2286,7 +2286,7 @@
         <v/>
       </c>
       <c r="F33" s="16">
-        <f>IF(D33="","",D33/$D$46)</f>
+        <f>IF(D33="","",D33/$D$41)</f>
         <v/>
       </c>
       <c r="G33" s="17">
@@ -2316,7 +2316,7 @@
         <v/>
       </c>
       <c r="D34" s="13">
-        <f>IF(B34="","",B34*C34*1000)</f>
+        <f>IF(B34="","",B34*C34)</f>
         <v/>
       </c>
       <c r="E34" s="15">
@@ -2324,7 +2324,7 @@
         <v/>
       </c>
       <c r="F34" s="16">
-        <f>IF(D34="","",D34/$D$46)</f>
+        <f>IF(D34="","",D34/$D$41)</f>
         <v/>
       </c>
       <c r="G34" s="17">
@@ -2354,7 +2354,7 @@
         <v/>
       </c>
       <c r="D35" s="13">
-        <f>IF(B35="","",B35*C35*1000)</f>
+        <f>IF(B35="","",B35*C35)</f>
         <v/>
       </c>
       <c r="E35" s="15">
@@ -2362,7 +2362,7 @@
         <v/>
       </c>
       <c r="F35" s="16">
-        <f>IF(D35="","",D35/$D$46)</f>
+        <f>IF(D35="","",D35/$D$41)</f>
         <v/>
       </c>
       <c r="G35" s="17">
@@ -2392,7 +2392,7 @@
         <v/>
       </c>
       <c r="D36" s="13">
-        <f>IF(B36="","",B36*C36*1000)</f>
+        <f>IF(B36="","",B36*C36)</f>
         <v/>
       </c>
       <c r="E36" s="15">
@@ -2400,7 +2400,7 @@
         <v/>
       </c>
       <c r="F36" s="16">
-        <f>IF(D36="","",D36/$D$46)</f>
+        <f>IF(D36="","",D36/$D$41)</f>
         <v/>
       </c>
       <c r="G36" s="17">
@@ -2430,7 +2430,7 @@
         <v/>
       </c>
       <c r="D37" s="13">
-        <f>IF(B37="","",B37*C37*1000)</f>
+        <f>IF(B37="","",B37*C37)</f>
         <v/>
       </c>
       <c r="E37" s="15">
@@ -2438,7 +2438,7 @@
         <v/>
       </c>
       <c r="F37" s="16">
-        <f>IF(D37="","",D37/$D$46)</f>
+        <f>IF(D37="","",D37/$D$41)</f>
         <v/>
       </c>
       <c r="G37" s="17">
@@ -2468,7 +2468,7 @@
         <v/>
       </c>
       <c r="D38" s="13">
-        <f>IF(B38="","",B38*C38*1000)</f>
+        <f>IF(B38="","",B38*C38)</f>
         <v/>
       </c>
       <c r="E38" s="15">
@@ -2476,7 +2476,7 @@
         <v/>
       </c>
       <c r="F38" s="16">
-        <f>IF(D38="","",D38/$D$46)</f>
+        <f>IF(D38="","",D38/$D$41)</f>
         <v/>
       </c>
       <c r="G38" s="17">
@@ -2506,7 +2506,7 @@
         <v/>
       </c>
       <c r="D39" s="13">
-        <f>IF(B39="","",B39*C39*1000)</f>
+        <f>IF(B39="","",B39*C39)</f>
         <v/>
       </c>
       <c r="E39" s="15">
@@ -2514,7 +2514,7 @@
         <v/>
       </c>
       <c r="F39" s="16">
-        <f>IF(D39="","",D39/$D$46)</f>
+        <f>IF(D39="","",D39/$D$41)</f>
         <v/>
       </c>
       <c r="G39" s="17">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>NUT-STD</t>
+          <t>18735</t>
         </is>
       </c>
       <c r="C3" s="26">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>NUT-STD</t>
+          <t>18732</t>
         </is>
       </c>
       <c r="C4" s="26">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>NUT-HVY</t>
+          <t>18736</t>
         </is>
       </c>
       <c r="C5" s="26">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>NUT-HVY</t>
+          <t>18734</t>
         </is>
       </c>
       <c r="C6" s="26">

--- a/Nut_Freight_Costs_copy.xlsx
+++ b/Nut_Freight_Costs_copy.xlsx
@@ -17,7 +17,8 @@
     <definedName name="NetFreight">'Import Data Entry'!$B$13</definedName>
     <definedName name="ShipmentDate">'Import Data Entry'!$B$6</definedName>
     <definedName name="VesselName">'Import Data Entry'!$B$5</definedName>
-    <definedName name="TotalSkids">'Import Data Entry'!$B$11</definedName>
+    <definedName name="TotalSkids">'Import Data Entry'!$B$12</definedName>
+    <definedName name="ShipmentWeightLBS">'Import Data Entry'!$B$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ERP Upload Template'!$A$2:$E$37</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -112,6 +113,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -124,7 +126,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -526,10 +527,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -629,10 +630,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Shipment Weight (LBS):</t>
+        </is>
+      </c>
+      <c r="B11" s="7">
+        <f>B10*2.20462</f>
+        <v/>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Auto-calculated from KGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Number of Skids:</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -642,7 +659,7 @@
           <t>NET FREIGHT TO ALLOCATE:</t>
         </is>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <f>B9-B8</f>
         <v/>
       </c>
@@ -654,66 +671,46 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>Part #</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Net Weight (KG)</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>Net Weight (LBS/M)</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>QTY (M)</t>
         </is>
       </c>
-      <c r="D16" s="9" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t># of Skids</t>
         </is>
       </c>
-      <c r="E16" s="9" t="inlineStr">
+      <c r="E17" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>DCS-621</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>243</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <f>IF(AND(A17&lt;&gt;"",B17&lt;&gt;"",C17&lt;&gt;"",D17&lt;&gt;""),"✓","")</f>
-        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>DCS-623</t>
+          <t>DCS-621</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>252</v>
-      </c>
-      <c r="D18" s="7" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>243</v>
+      </c>
+      <c r="D18" s="8" t="n">
         <v>2</v>
       </c>
       <c r="E18">
@@ -724,17 +721,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>DCS-672</t>
+          <t>DCS-623</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>3</v>
+        <v>6.9</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>252</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="E19">
         <f>IF(AND(A19&lt;&gt;"",B19&lt;&gt;"",C19&lt;&gt;"",D19&lt;&gt;""),"✓","")</f>
@@ -744,17 +741,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>DCS-929</t>
+          <t>DCS-672</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>1020.6</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>6</v>
+        <v>15.4</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="E20">
         <f>IF(AND(A20&lt;&gt;"",B20&lt;&gt;"",C20&lt;&gt;"",D20&lt;&gt;""),"✓","")</f>
@@ -762,10 +759,20 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="7" t="n"/>
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>DCS-929</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="E21">
         <f>IF(AND(A21&lt;&gt;"",B21&lt;&gt;"",C21&lt;&gt;"",D21&lt;&gt;""),"✓","")</f>
         <v/>
@@ -774,8 +781,8 @@
     <row r="22">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="6" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="7" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="8" t="n"/>
       <c r="E22">
         <f>IF(AND(A22&lt;&gt;"",B22&lt;&gt;"",C22&lt;&gt;"",D22&lt;&gt;""),"✓","")</f>
         <v/>
@@ -784,8 +791,8 @@
     <row r="23">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="6" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="7" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="8" t="n"/>
       <c r="E23">
         <f>IF(AND(A23&lt;&gt;"",B23&lt;&gt;"",C23&lt;&gt;"",D23&lt;&gt;""),"✓","")</f>
         <v/>
@@ -794,8 +801,8 @@
     <row r="24">
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="6" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="7" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="8" t="n"/>
       <c r="E24">
         <f>IF(AND(A24&lt;&gt;"",B24&lt;&gt;"",C24&lt;&gt;"",D24&lt;&gt;""),"✓","")</f>
         <v/>
@@ -804,8 +811,8 @@
     <row r="25">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="6" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="7" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="8" t="n"/>
       <c r="E25">
         <f>IF(AND(A25&lt;&gt;"",B25&lt;&gt;"",C25&lt;&gt;"",D25&lt;&gt;""),"✓","")</f>
         <v/>
@@ -814,8 +821,8 @@
     <row r="26">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="6" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="7" t="n"/>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="8" t="n"/>
       <c r="E26">
         <f>IF(AND(A26&lt;&gt;"",B26&lt;&gt;"",C26&lt;&gt;"",D26&lt;&gt;""),"✓","")</f>
         <v/>
@@ -824,8 +831,8 @@
     <row r="27">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="6" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="7" t="n"/>
+      <c r="C27" s="11" t="n"/>
+      <c r="D27" s="8" t="n"/>
       <c r="E27">
         <f>IF(AND(A27&lt;&gt;"",B27&lt;&gt;"",C27&lt;&gt;"",D27&lt;&gt;""),"✓","")</f>
         <v/>
@@ -834,8 +841,8 @@
     <row r="28">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="6" t="n"/>
-      <c r="C28" s="10" t="n"/>
-      <c r="D28" s="7" t="n"/>
+      <c r="C28" s="11" t="n"/>
+      <c r="D28" s="8" t="n"/>
       <c r="E28">
         <f>IF(AND(A28&lt;&gt;"",B28&lt;&gt;"",C28&lt;&gt;"",D28&lt;&gt;""),"✓","")</f>
         <v/>
@@ -844,8 +851,8 @@
     <row r="29">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="6" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="7" t="n"/>
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="8" t="n"/>
       <c r="E29">
         <f>IF(AND(A29&lt;&gt;"",B29&lt;&gt;"",C29&lt;&gt;"",D29&lt;&gt;""),"✓","")</f>
         <v/>
@@ -854,8 +861,8 @@
     <row r="30">
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="6" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="7" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="8" t="n"/>
       <c r="E30">
         <f>IF(AND(A30&lt;&gt;"",B30&lt;&gt;"",C30&lt;&gt;"",D30&lt;&gt;""),"✓","")</f>
         <v/>
@@ -864,8 +871,8 @@
     <row r="31">
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="6" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="7" t="n"/>
+      <c r="C31" s="11" t="n"/>
+      <c r="D31" s="8" t="n"/>
       <c r="E31">
         <f>IF(AND(A31&lt;&gt;"",B31&lt;&gt;"",C31&lt;&gt;"",D31&lt;&gt;""),"✓","")</f>
         <v/>
@@ -874,8 +881,8 @@
     <row r="32">
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="6" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="7" t="n"/>
+      <c r="C32" s="11" t="n"/>
+      <c r="D32" s="8" t="n"/>
       <c r="E32">
         <f>IF(AND(A32&lt;&gt;"",B32&lt;&gt;"",C32&lt;&gt;"",D32&lt;&gt;""),"✓","")</f>
         <v/>
@@ -884,8 +891,8 @@
     <row r="33">
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="6" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="7" t="n"/>
+      <c r="C33" s="11" t="n"/>
+      <c r="D33" s="8" t="n"/>
       <c r="E33">
         <f>IF(AND(A33&lt;&gt;"",B33&lt;&gt;"",C33&lt;&gt;"",D33&lt;&gt;""),"✓","")</f>
         <v/>
@@ -894,8 +901,8 @@
     <row r="34">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="6" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="7" t="n"/>
+      <c r="C34" s="11" t="n"/>
+      <c r="D34" s="8" t="n"/>
       <c r="E34">
         <f>IF(AND(A34&lt;&gt;"",B34&lt;&gt;"",C34&lt;&gt;"",D34&lt;&gt;""),"✓","")</f>
         <v/>
@@ -904,8 +911,8 @@
     <row r="35">
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="6" t="n"/>
-      <c r="C35" s="10" t="n"/>
-      <c r="D35" s="7" t="n"/>
+      <c r="C35" s="11" t="n"/>
+      <c r="D35" s="8" t="n"/>
       <c r="E35">
         <f>IF(AND(A35&lt;&gt;"",B35&lt;&gt;"",C35&lt;&gt;"",D35&lt;&gt;""),"✓","")</f>
         <v/>
@@ -914,8 +921,8 @@
     <row r="36">
       <c r="A36" s="3" t="n"/>
       <c r="B36" s="6" t="n"/>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="7" t="n"/>
+      <c r="C36" s="11" t="n"/>
+      <c r="D36" s="8" t="n"/>
       <c r="E36">
         <f>IF(AND(A36&lt;&gt;"",B36&lt;&gt;"",C36&lt;&gt;"",D36&lt;&gt;""),"✓","")</f>
         <v/>
@@ -924,8 +931,8 @@
     <row r="37">
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="6" t="n"/>
-      <c r="C37" s="10" t="n"/>
-      <c r="D37" s="7" t="n"/>
+      <c r="C37" s="11" t="n"/>
+      <c r="D37" s="8" t="n"/>
       <c r="E37">
         <f>IF(AND(A37&lt;&gt;"",B37&lt;&gt;"",C37&lt;&gt;"",D37&lt;&gt;""),"✓","")</f>
         <v/>
@@ -934,8 +941,8 @@
     <row r="38">
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="6" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="7" t="n"/>
+      <c r="C38" s="11" t="n"/>
+      <c r="D38" s="8" t="n"/>
       <c r="E38">
         <f>IF(AND(A38&lt;&gt;"",B38&lt;&gt;"",C38&lt;&gt;"",D38&lt;&gt;""),"✓","")</f>
         <v/>
@@ -944,8 +951,8 @@
     <row r="39">
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="6" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="7" t="n"/>
+      <c r="C39" s="11" t="n"/>
+      <c r="D39" s="8" t="n"/>
       <c r="E39">
         <f>IF(AND(A39&lt;&gt;"",B39&lt;&gt;"",C39&lt;&gt;"",D39&lt;&gt;""),"✓","")</f>
         <v/>
@@ -954,8 +961,8 @@
     <row r="40">
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="6" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="7" t="n"/>
+      <c r="C40" s="11" t="n"/>
+      <c r="D40" s="8" t="n"/>
       <c r="E40">
         <f>IF(AND(A40&lt;&gt;"",B40&lt;&gt;"",C40&lt;&gt;"",D40&lt;&gt;""),"✓","")</f>
         <v/>
@@ -964,8 +971,8 @@
     <row r="41">
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="6" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="7" t="n"/>
+      <c r="C41" s="11" t="n"/>
+      <c r="D41" s="8" t="n"/>
       <c r="E41">
         <f>IF(AND(A41&lt;&gt;"",B41&lt;&gt;"",C41&lt;&gt;"",D41&lt;&gt;""),"✓","")</f>
         <v/>
@@ -974,8 +981,8 @@
     <row r="42">
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="6" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="7" t="n"/>
+      <c r="C42" s="11" t="n"/>
+      <c r="D42" s="8" t="n"/>
       <c r="E42">
         <f>IF(AND(A42&lt;&gt;"",B42&lt;&gt;"",C42&lt;&gt;"",D42&lt;&gt;""),"✓","")</f>
         <v/>
@@ -984,8 +991,8 @@
     <row r="43">
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="6" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="7" t="n"/>
+      <c r="C43" s="11" t="n"/>
+      <c r="D43" s="8" t="n"/>
       <c r="E43">
         <f>IF(AND(A43&lt;&gt;"",B43&lt;&gt;"",C43&lt;&gt;"",D43&lt;&gt;""),"✓","")</f>
         <v/>
@@ -994,8 +1001,8 @@
     <row r="44">
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="6" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="7" t="n"/>
+      <c r="C44" s="11" t="n"/>
+      <c r="D44" s="8" t="n"/>
       <c r="E44">
         <f>IF(AND(A44&lt;&gt;"",B44&lt;&gt;"",C44&lt;&gt;"",D44&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1004,8 +1011,8 @@
     <row r="45">
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="6" t="n"/>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="7" t="n"/>
+      <c r="C45" s="11" t="n"/>
+      <c r="D45" s="8" t="n"/>
       <c r="E45">
         <f>IF(AND(A45&lt;&gt;"",B45&lt;&gt;"",C45&lt;&gt;"",D45&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1014,8 +1021,8 @@
     <row r="46">
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="6" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="7" t="n"/>
+      <c r="C46" s="11" t="n"/>
+      <c r="D46" s="8" t="n"/>
       <c r="E46">
         <f>IF(AND(A46&lt;&gt;"",B46&lt;&gt;"",C46&lt;&gt;"",D46&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1024,8 +1031,8 @@
     <row r="47">
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="6" t="n"/>
-      <c r="C47" s="10" t="n"/>
-      <c r="D47" s="7" t="n"/>
+      <c r="C47" s="11" t="n"/>
+      <c r="D47" s="8" t="n"/>
       <c r="E47">
         <f>IF(AND(A47&lt;&gt;"",B47&lt;&gt;"",C47&lt;&gt;"",D47&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1034,8 +1041,8 @@
     <row r="48">
       <c r="A48" s="3" t="n"/>
       <c r="B48" s="6" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="7" t="n"/>
+      <c r="C48" s="11" t="n"/>
+      <c r="D48" s="8" t="n"/>
       <c r="E48">
         <f>IF(AND(A48&lt;&gt;"",B48&lt;&gt;"",C48&lt;&gt;"",D48&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1044,8 +1051,8 @@
     <row r="49">
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="6" t="n"/>
-      <c r="C49" s="10" t="n"/>
-      <c r="D49" s="7" t="n"/>
+      <c r="C49" s="11" t="n"/>
+      <c r="D49" s="8" t="n"/>
       <c r="E49">
         <f>IF(AND(A49&lt;&gt;"",B49&lt;&gt;"",C49&lt;&gt;"",D49&lt;&gt;""),"✓","")</f>
         <v/>
@@ -1054,40 +1061,50 @@
     <row r="50">
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="6" t="n"/>
-      <c r="C50" s="10" t="n"/>
-      <c r="D50" s="7" t="n"/>
+      <c r="C50" s="11" t="n"/>
+      <c r="D50" s="8" t="n"/>
       <c r="E50">
         <f>IF(AND(A50&lt;&gt;"",B50&lt;&gt;"",C50&lt;&gt;"",D50&lt;&gt;""),"✓","")</f>
         <v/>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="11" t="n"/>
+      <c r="D51" s="8" t="n"/>
+      <c r="E51">
+        <f>IF(AND(A51&lt;&gt;"",B51&lt;&gt;"",C51&lt;&gt;"",D51&lt;&gt;""),"✓","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>Ready to Calculate:</t>
         </is>
       </c>
-      <c r="B52" s="2">
-        <f>IF(COUNTIF(E17:E50,"✓")&gt;0,"YES - Go to Shipment Calculation tab","NO - Complete part details")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+      <c r="B53" s="2">
+        <f>IF(COUNTIF(E18:E51,"✓")&gt;0,"YES - Go to Shipment Calculation tab","NO - Complete part details")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>NEW PROCESS:
 1. Enter customs entry number, vessel, date
 2. Enter total duty from CBP Box 37
 3. Enter freight invoice total (ALL charges)
-4. Enter shipment weight (KGS) and skid count
-5. Paste or type part details (Part #, Net Weight, QTY, Skids)
-6. Go to Shipment Calculation tab - review auto-calculated costs
-7. Go to ERP Upload tab - copy table and paste into ERP system
-8. Record in Historical Log for future reference</t>
-        </is>
-      </c>
-    </row>
-    <row r="55"/>
+4. Enter shipment weight (KGS) - LBS auto-calculates
+5. Enter skid count
+6. Paste or type part details (Part #, Net Weight in LBS/M, QTY, Skids)
+7. Go to Shipment Calculation tab - review auto-calculated costs
+8. Go to ERP Upload tab - copy table and paste into ERP system
+9. Record in Historical Log for future reference</t>
+        </is>
+      </c>
+    </row>
     <row r="56"/>
     <row r="57"/>
     <row r="58"/>
@@ -1095,17 +1112,18 @@
     <row r="60"/>
     <row r="61"/>
     <row r="62"/>
+    <row r="63"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A54:F62"/>
+    <mergeCell ref="A55:F63"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E17:E50">
+  <conditionalFormatting sqref="E18:E51">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"✓"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B53">
     <cfRule type="cellIs" priority="2" operator="containsText" dxfId="0">
       <formula>"YES"</formula>
     </cfRule>
@@ -1146,54 +1164,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>AUTO-POPULATED FROM IMPORT DATA ENTRY - DO NOT EDIT</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Part #</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Net Weight(KG)</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>Net Weight(LBS/M)</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>QTY(M)</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>Total Weight(KGS)</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>Total Weight(LBS)</t>
+        </is>
+      </c>
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t># of Skids</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>Weight %</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>Cost Allocated</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>Cost/KGS</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
+        <is>
+          <t>Cost/LBS</t>
+        </is>
+      </c>
+      <c r="I3" s="10" t="inlineStr">
         <is>
           <t>Cost/M</t>
         </is>
@@ -1202,23 +1220,23 @@
     <row r="4"/>
     <row r="5">
       <c r="A5">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,1),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,1),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,1),"")</f>
+        <v/>
+      </c>
+      <c r="B5" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,1),"")</f>
         <v/>
       </c>
       <c r="C5" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,1),"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,1),"")</f>
+        <v/>
+      </c>
+      <c r="D5" s="7">
         <f>IF(B5="","",B5*C5)</f>
         <v/>
       </c>
       <c r="E5" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,1),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,1),"")</f>
         <v/>
       </c>
       <c r="F5" s="16">
@@ -1240,23 +1258,23 @@
     </row>
     <row r="6">
       <c r="A6">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,2),"")</f>
-        <v/>
-      </c>
-      <c r="B6" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,2),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,2),"")</f>
+        <v/>
+      </c>
+      <c r="B6" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,2),"")</f>
         <v/>
       </c>
       <c r="C6" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,2),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,2),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="7">
         <f>IF(B6="","",B6*C6)</f>
         <v/>
       </c>
       <c r="E6" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,2),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,2),"")</f>
         <v/>
       </c>
       <c r="F6" s="16">
@@ -1278,23 +1296,23 @@
     </row>
     <row r="7">
       <c r="A7">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,3),"")</f>
-        <v/>
-      </c>
-      <c r="B7" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,3),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,3),"")</f>
+        <v/>
+      </c>
+      <c r="B7" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,3),"")</f>
         <v/>
       </c>
       <c r="C7" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,3),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,3),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="7">
         <f>IF(B7="","",B7*C7)</f>
         <v/>
       </c>
       <c r="E7" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,3),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,3),"")</f>
         <v/>
       </c>
       <c r="F7" s="16">
@@ -1316,23 +1334,23 @@
     </row>
     <row r="8">
       <c r="A8">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,4),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,4),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,4),"")</f>
+        <v/>
+      </c>
+      <c r="B8" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,4),"")</f>
         <v/>
       </c>
       <c r="C8" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,4),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,4),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="7">
         <f>IF(B8="","",B8*C8)</f>
         <v/>
       </c>
       <c r="E8" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,4),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,4),"")</f>
         <v/>
       </c>
       <c r="F8" s="16">
@@ -1354,23 +1372,23 @@
     </row>
     <row r="9">
       <c r="A9">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,5),"")</f>
-        <v/>
-      </c>
-      <c r="B9" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,5),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,5),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,5),"")</f>
         <v/>
       </c>
       <c r="C9" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,5),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,5),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="7">
         <f>IF(B9="","",B9*C9)</f>
         <v/>
       </c>
       <c r="E9" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,5),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,5),"")</f>
         <v/>
       </c>
       <c r="F9" s="16">
@@ -1392,23 +1410,23 @@
     </row>
     <row r="10">
       <c r="A10">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,6),"")</f>
-        <v/>
-      </c>
-      <c r="B10" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,6),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,6),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,6),"")</f>
         <v/>
       </c>
       <c r="C10" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,6),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,6),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="7">
         <f>IF(B10="","",B10*C10)</f>
         <v/>
       </c>
       <c r="E10" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,6),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,6),"")</f>
         <v/>
       </c>
       <c r="F10" s="16">
@@ -1430,23 +1448,23 @@
     </row>
     <row r="11">
       <c r="A11">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,7),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,7),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,7),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,7),"")</f>
         <v/>
       </c>
       <c r="C11" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,7),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,7),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="7">
         <f>IF(B11="","",B11*C11)</f>
         <v/>
       </c>
       <c r="E11" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,7),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,7),"")</f>
         <v/>
       </c>
       <c r="F11" s="16">
@@ -1468,23 +1486,23 @@
     </row>
     <row r="12">
       <c r="A12">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,8),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,8),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,8),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,8),"")</f>
         <v/>
       </c>
       <c r="C12" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,8),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,8),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="7">
         <f>IF(B12="","",B12*C12)</f>
         <v/>
       </c>
       <c r="E12" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,8),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,8),"")</f>
         <v/>
       </c>
       <c r="F12" s="16">
@@ -1506,23 +1524,23 @@
     </row>
     <row r="13">
       <c r="A13">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,9),"")</f>
-        <v/>
-      </c>
-      <c r="B13" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,9),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,9),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,9),"")</f>
         <v/>
       </c>
       <c r="C13" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,9),"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,9),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="7">
         <f>IF(B13="","",B13*C13)</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,9),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,9),"")</f>
         <v/>
       </c>
       <c r="F13" s="16">
@@ -1544,23 +1562,23 @@
     </row>
     <row r="14">
       <c r="A14">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,10),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,10),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,10),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,10),"")</f>
         <v/>
       </c>
       <c r="C14" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,10),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,10),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="7">
         <f>IF(B14="","",B14*C14)</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,10),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,10),"")</f>
         <v/>
       </c>
       <c r="F14" s="16">
@@ -1582,23 +1600,23 @@
     </row>
     <row r="15">
       <c r="A15">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,11),"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,11),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,11),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,11),"")</f>
         <v/>
       </c>
       <c r="C15" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,11),"")</f>
-        <v/>
-      </c>
-      <c r="D15" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,11),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="7">
         <f>IF(B15="","",B15*C15)</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,11),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,11),"")</f>
         <v/>
       </c>
       <c r="F15" s="16">
@@ -1620,23 +1638,23 @@
     </row>
     <row r="16">
       <c r="A16">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,12),"")</f>
-        <v/>
-      </c>
-      <c r="B16" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,12),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,12),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,12),"")</f>
         <v/>
       </c>
       <c r="C16" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,12),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,12),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="7">
         <f>IF(B16="","",B16*C16)</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,12),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,12),"")</f>
         <v/>
       </c>
       <c r="F16" s="16">
@@ -1658,23 +1676,23 @@
     </row>
     <row r="17">
       <c r="A17">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,13),"")</f>
-        <v/>
-      </c>
-      <c r="B17" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,13),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,13),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,13),"")</f>
         <v/>
       </c>
       <c r="C17" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,13),"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,13),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="7">
         <f>IF(B17="","",B17*C17)</f>
         <v/>
       </c>
       <c r="E17" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,13),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,13),"")</f>
         <v/>
       </c>
       <c r="F17" s="16">
@@ -1696,23 +1714,23 @@
     </row>
     <row r="18">
       <c r="A18">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,14),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,14),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,14),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,14),"")</f>
         <v/>
       </c>
       <c r="C18" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,14),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,14),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="7">
         <f>IF(B18="","",B18*C18)</f>
         <v/>
       </c>
       <c r="E18" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,14),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,14),"")</f>
         <v/>
       </c>
       <c r="F18" s="16">
@@ -1734,23 +1752,23 @@
     </row>
     <row r="19">
       <c r="A19">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,15),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,15),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,15),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,15),"")</f>
         <v/>
       </c>
       <c r="C19" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,15),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,15),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="7">
         <f>IF(B19="","",B19*C19)</f>
         <v/>
       </c>
       <c r="E19" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,15),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,15),"")</f>
         <v/>
       </c>
       <c r="F19" s="16">
@@ -1772,23 +1790,23 @@
     </row>
     <row r="20">
       <c r="A20">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,16),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,16),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,16),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,16),"")</f>
         <v/>
       </c>
       <c r="C20" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,16),"")</f>
-        <v/>
-      </c>
-      <c r="D20" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,16),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="7">
         <f>IF(B20="","",B20*C20)</f>
         <v/>
       </c>
       <c r="E20" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,16),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,16),"")</f>
         <v/>
       </c>
       <c r="F20" s="16">
@@ -1810,23 +1828,23 @@
     </row>
     <row r="21">
       <c r="A21">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,17),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,17),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,17),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,17),"")</f>
         <v/>
       </c>
       <c r="C21" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,17),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,17),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="7">
         <f>IF(B21="","",B21*C21)</f>
         <v/>
       </c>
       <c r="E21" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,17),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,17),"")</f>
         <v/>
       </c>
       <c r="F21" s="16">
@@ -1848,23 +1866,23 @@
     </row>
     <row r="22">
       <c r="A22">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,18),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,18),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,18),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,18),"")</f>
         <v/>
       </c>
       <c r="C22" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,18),"")</f>
-        <v/>
-      </c>
-      <c r="D22" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,18),"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="7">
         <f>IF(B22="","",B22*C22)</f>
         <v/>
       </c>
       <c r="E22" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,18),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,18),"")</f>
         <v/>
       </c>
       <c r="F22" s="16">
@@ -1886,23 +1904,23 @@
     </row>
     <row r="23">
       <c r="A23">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,19),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,19),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,19),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,19),"")</f>
         <v/>
       </c>
       <c r="C23" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,19),"")</f>
-        <v/>
-      </c>
-      <c r="D23" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,19),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="7">
         <f>IF(B23="","",B23*C23)</f>
         <v/>
       </c>
       <c r="E23" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,19),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,19),"")</f>
         <v/>
       </c>
       <c r="F23" s="16">
@@ -1924,23 +1942,23 @@
     </row>
     <row r="24">
       <c r="A24">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,20),"")</f>
-        <v/>
-      </c>
-      <c r="B24" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,20),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,20),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,20),"")</f>
         <v/>
       </c>
       <c r="C24" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,20),"")</f>
-        <v/>
-      </c>
-      <c r="D24" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,20),"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="7">
         <f>IF(B24="","",B24*C24)</f>
         <v/>
       </c>
       <c r="E24" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,20),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,20),"")</f>
         <v/>
       </c>
       <c r="F24" s="16">
@@ -1962,23 +1980,23 @@
     </row>
     <row r="25">
       <c r="A25">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,21),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,21),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,21),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,21),"")</f>
         <v/>
       </c>
       <c r="C25" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,21),"")</f>
-        <v/>
-      </c>
-      <c r="D25" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,21),"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="7">
         <f>IF(B25="","",B25*C25)</f>
         <v/>
       </c>
       <c r="E25" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,21),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,21),"")</f>
         <v/>
       </c>
       <c r="F25" s="16">
@@ -2000,23 +2018,23 @@
     </row>
     <row r="26">
       <c r="A26">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,22),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,22),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,22),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,22),"")</f>
         <v/>
       </c>
       <c r="C26" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,22),"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,22),"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="7">
         <f>IF(B26="","",B26*C26)</f>
         <v/>
       </c>
       <c r="E26" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,22),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,22),"")</f>
         <v/>
       </c>
       <c r="F26" s="16">
@@ -2038,23 +2056,23 @@
     </row>
     <row r="27">
       <c r="A27">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,23),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,23),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,23),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,23),"")</f>
         <v/>
       </c>
       <c r="C27" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,23),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,23),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="7">
         <f>IF(B27="","",B27*C27)</f>
         <v/>
       </c>
       <c r="E27" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,23),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,23),"")</f>
         <v/>
       </c>
       <c r="F27" s="16">
@@ -2076,23 +2094,23 @@
     </row>
     <row r="28">
       <c r="A28">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,24),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,24),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,24),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,24),"")</f>
         <v/>
       </c>
       <c r="C28" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,24),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,24),"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="7">
         <f>IF(B28="","",B28*C28)</f>
         <v/>
       </c>
       <c r="E28" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,24),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,24),"")</f>
         <v/>
       </c>
       <c r="F28" s="16">
@@ -2114,23 +2132,23 @@
     </row>
     <row r="29">
       <c r="A29">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,25),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,25),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,25),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,25),"")</f>
         <v/>
       </c>
       <c r="C29" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,25),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,25),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="7">
         <f>IF(B29="","",B29*C29)</f>
         <v/>
       </c>
       <c r="E29" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,25),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,25),"")</f>
         <v/>
       </c>
       <c r="F29" s="16">
@@ -2152,23 +2170,23 @@
     </row>
     <row r="30">
       <c r="A30">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,26),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,26),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,26),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,26),"")</f>
         <v/>
       </c>
       <c r="C30" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,26),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,26),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="7">
         <f>IF(B30="","",B30*C30)</f>
         <v/>
       </c>
       <c r="E30" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,26),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,26),"")</f>
         <v/>
       </c>
       <c r="F30" s="16">
@@ -2190,23 +2208,23 @@
     </row>
     <row r="31">
       <c r="A31">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,27),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,27),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,27),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,27),"")</f>
         <v/>
       </c>
       <c r="C31" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,27),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,27),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="7">
         <f>IF(B31="","",B31*C31)</f>
         <v/>
       </c>
       <c r="E31" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,27),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,27),"")</f>
         <v/>
       </c>
       <c r="F31" s="16">
@@ -2228,23 +2246,23 @@
     </row>
     <row r="32">
       <c r="A32">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,28),"")</f>
-        <v/>
-      </c>
-      <c r="B32" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,28),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,28),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,28),"")</f>
         <v/>
       </c>
       <c r="C32" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,28),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,28),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="7">
         <f>IF(B32="","",B32*C32)</f>
         <v/>
       </c>
       <c r="E32" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,28),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,28),"")</f>
         <v/>
       </c>
       <c r="F32" s="16">
@@ -2266,23 +2284,23 @@
     </row>
     <row r="33">
       <c r="A33">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,29),"")</f>
-        <v/>
-      </c>
-      <c r="B33" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,29),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,29),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,29),"")</f>
         <v/>
       </c>
       <c r="C33" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,29),"")</f>
-        <v/>
-      </c>
-      <c r="D33" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,29),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="7">
         <f>IF(B33="","",B33*C33)</f>
         <v/>
       </c>
       <c r="E33" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,29),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,29),"")</f>
         <v/>
       </c>
       <c r="F33" s="16">
@@ -2304,23 +2322,23 @@
     </row>
     <row r="34">
       <c r="A34">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,30),"")</f>
-        <v/>
-      </c>
-      <c r="B34" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,30),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,30),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,30),"")</f>
         <v/>
       </c>
       <c r="C34" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,30),"")</f>
-        <v/>
-      </c>
-      <c r="D34" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,30),"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="7">
         <f>IF(B34="","",B34*C34)</f>
         <v/>
       </c>
       <c r="E34" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,30),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,30),"")</f>
         <v/>
       </c>
       <c r="F34" s="16">
@@ -2342,23 +2360,23 @@
     </row>
     <row r="35">
       <c r="A35">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,31),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,31),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,31),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,31),"")</f>
         <v/>
       </c>
       <c r="C35" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,31),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,31),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="7">
         <f>IF(B35="","",B35*C35)</f>
         <v/>
       </c>
       <c r="E35" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,31),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,31),"")</f>
         <v/>
       </c>
       <c r="F35" s="16">
@@ -2380,23 +2398,23 @@
     </row>
     <row r="36">
       <c r="A36">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,32),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,32),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,32),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,32),"")</f>
         <v/>
       </c>
       <c r="C36" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,32),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,32),"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="7">
         <f>IF(B36="","",B36*C36)</f>
         <v/>
       </c>
       <c r="E36" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,32),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,32),"")</f>
         <v/>
       </c>
       <c r="F36" s="16">
@@ -2418,23 +2436,23 @@
     </row>
     <row r="37">
       <c r="A37">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,33),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,33),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,33),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,33),"")</f>
         <v/>
       </c>
       <c r="C37" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,33),"")</f>
-        <v/>
-      </c>
-      <c r="D37" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,33),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="7">
         <f>IF(B37="","",B37*C37)</f>
         <v/>
       </c>
       <c r="E37" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,33),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,33),"")</f>
         <v/>
       </c>
       <c r="F37" s="16">
@@ -2456,23 +2474,23 @@
     </row>
     <row r="38">
       <c r="A38">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,34),"")</f>
-        <v/>
-      </c>
-      <c r="B38" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,34),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,34),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,34),"")</f>
         <v/>
       </c>
       <c r="C38" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,34),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,34),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="7">
         <f>IF(B38="","",B38*C38)</f>
         <v/>
       </c>
       <c r="E38" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,34),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,34),"")</f>
         <v/>
       </c>
       <c r="F38" s="16">
@@ -2494,23 +2512,23 @@
     </row>
     <row r="39">
       <c r="A39">
-        <f>IFERROR(INDEX('Import Data Entry'!$A$17:$A$50,35),"")</f>
-        <v/>
-      </c>
-      <c r="B39" s="13">
-        <f>IFERROR(INDEX('Import Data Entry'!$B$17:$B$50,35),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$A$18:$A$51,35),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="7">
+        <f>IFERROR(INDEX('Import Data Entry'!$B$18:$B$51,35),"")</f>
         <v/>
       </c>
       <c r="C39" s="14">
-        <f>IFERROR(INDEX('Import Data Entry'!$C$17:$C$50,35),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="13">
+        <f>IFERROR(INDEX('Import Data Entry'!$C$18:$C$51,35),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="7">
         <f>IF(B39="","",B39*C39)</f>
         <v/>
       </c>
       <c r="E39" s="15">
-        <f>IFERROR(INDEX('Import Data Entry'!$D$17:$D$50,35),"")</f>
+        <f>IFERROR(INDEX('Import Data Entry'!$D$18:$D$51,35),"")</f>
         <v/>
       </c>
       <c r="F39" s="16">
@@ -2568,7 +2586,7 @@
           <t>Shipment cost</t>
         </is>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <f>'Import Data Entry'!B13</f>
         <v/>
       </c>
@@ -2578,7 +2596,7 @@
         </is>
       </c>
       <c r="D44" s="20">
-        <f>'Import Data Entry'!B11</f>
+        <f>'Import Data Entry'!B12</f>
         <v/>
       </c>
     </row>
@@ -2586,21 +2604,21 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
+          <t>Total weight(LBS)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Total weight(KGS)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total weight(KGS)</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shipment weight KGS:</t>
+          <t>Shipment weight LBS:</t>
         </is>
       </c>
       <c r="D46" s="22">
-        <f>'Import Data Entry'!B10</f>
+        <f>'Import Data Entry'!B11</f>
         <v/>
       </c>
     </row>
@@ -2667,22 +2685,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Part #</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Freight Cost/M</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Net Weight</t>
         </is>
@@ -2733,27 +2751,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Part_Number</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>DRM_Code</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Freight_Cost_Per_M</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>Entry_Date</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
